--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unused" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,59 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
-  <si>
-    <t>sequence-ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
   <si>
     <t>genus</t>
   </si>
   <si>
-    <t>NC_030446</t>
-  </si>
-  <si>
     <t>Amphibian</t>
   </si>
   <si>
-    <t>NC_001344</t>
-  </si>
-  <si>
     <t>Avihepadnavirus</t>
   </si>
   <si>
-    <t>NC_030445</t>
-  </si>
-  <si>
     <t>Fish</t>
   </si>
   <si>
     <t>Orthohepadnavirus</t>
   </si>
   <si>
-    <t>NC_003977</t>
-  </si>
-  <si>
-    <t>NC_024444</t>
-  </si>
-  <si>
     <t>Herpetohepadnavirus</t>
   </si>
   <si>
-    <t>SkHBV</t>
-  </si>
-  <si>
-    <t>AMDV</t>
-  </si>
-  <si>
     <t>Metahepadnavirus</t>
   </si>
   <si>
     <t>Nackednavirus</t>
   </si>
   <si>
-    <t>ACNDV</t>
-  </si>
-  <si>
     <t>SSNDV</t>
   </si>
   <si>
@@ -84,51 +58,24 @@
     <t>endNT</t>
   </si>
   <si>
-    <t>PreC/C</t>
-  </si>
-  <si>
     <t>Polymerase</t>
   </si>
   <si>
-    <t>PreS/S</t>
-  </si>
-  <si>
     <t>1..114</t>
   </si>
   <si>
-    <t>ORFY</t>
-  </si>
-  <si>
-    <t>ORFZ</t>
-  </si>
-  <si>
     <t>Core</t>
   </si>
   <si>
-    <t>1…1478</t>
-  </si>
-  <si>
-    <t>1..1625</t>
-  </si>
-  <si>
     <t>1..837</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>TP</t>
   </si>
   <si>
     <t>RT</t>
   </si>
   <si>
-    <t>PreS</t>
-  </si>
-  <si>
-    <t>PrePreS</t>
-  </si>
-  <si>
     <t>DR1</t>
   </si>
   <si>
@@ -144,10 +91,49 @@
     <t>smORF3</t>
   </si>
   <si>
-    <t>ORFX</t>
-  </si>
-  <si>
-    <t>P-protein</t>
+    <t>referenceName</t>
+  </si>
+  <si>
+    <t>REF_MASTER_HBV</t>
+  </si>
+  <si>
+    <t>REF_DHBV</t>
+  </si>
+  <si>
+    <t>REF_TFHBV</t>
+  </si>
+  <si>
+    <t>REF_BBA91</t>
+  </si>
+  <si>
+    <t>REF_SkHBV</t>
+  </si>
+  <si>
+    <t>REF_AMDV</t>
+  </si>
+  <si>
+    <t>REF_ACNDV</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>large-S</t>
+  </si>
+  <si>
+    <t>small-S</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1820..3182</t>
+  </si>
+  <si>
+    <t>medium-S</t>
   </si>
 </sst>
 </file>
@@ -160,6 +146,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,16 +173,25 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -207,8 +203,136 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -320,9 +444,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -375,6 +499,70 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -427,6 +615,70 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -756,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -773,901 +1025,786 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>857</v>
+        <v>1932</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4">
-        <v>676</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3111</v>
+        <v>2850</v>
+      </c>
+      <c r="E3">
+        <v>3182</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4">
-        <v>893</v>
+        <v>1376</v>
       </c>
       <c r="E4" s="4">
-        <v>2365</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1816</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>676</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4">
+        <v>893</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1280</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1280</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4">
         <v>2524</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>3027</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
         <v>20</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E12" s="4">
         <v>2536</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4">
-        <v>170</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="4">
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4">
         <v>693</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E13" s="4">
         <v>1973</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4">
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4">
         <v>1290</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E14" s="4">
         <v>1793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4">
-        <v>139</v>
-      </c>
-      <c r="E12" s="4">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4">
-        <v>512</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1071</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2057</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>139</v>
+      </c>
+      <c r="E16" s="4">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>512</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1071</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2818</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3442</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3">
+        <v>117</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2243</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3">
+        <v>862</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1421</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2818</v>
-      </c>
-      <c r="E15" s="4">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2309</v>
-      </c>
-      <c r="E16">
-        <v>3182</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>199</v>
+      </c>
+      <c r="E28" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2850</v>
-      </c>
-      <c r="E17">
-        <v>3182</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1376</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1816</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1220</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1657</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2147</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3377</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="D29" s="3">
+        <v>620</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="3">
-        <v>3442</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="3">
-        <v>117</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3">
-        <v>862</v>
-      </c>
-      <c r="E27" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2243</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="3">
-        <v>862</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D30" s="3">
-        <v>2275</v>
+        <v>1704</v>
       </c>
       <c r="E30" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D31" s="3">
-        <v>1421</v>
+        <v>620</v>
       </c>
       <c r="E31" s="3">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D32" s="3">
-        <v>199</v>
+        <v>1736</v>
       </c>
       <c r="E32" s="3">
-        <v>750</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="3">
-        <v>620</v>
+        <v>1119</v>
       </c>
       <c r="E33" s="3">
-        <v>3124</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D34" s="3">
-        <v>3120</v>
+        <v>1038</v>
       </c>
       <c r="E34" s="3">
-        <v>48</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D35" s="3">
-        <v>1704</v>
+        <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>2351</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3">
-        <v>620</v>
+        <v>3207</v>
       </c>
       <c r="E36" s="3">
-        <v>1096</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
-        <v>1736</v>
+        <v>1</v>
       </c>
       <c r="E37" s="3">
-        <v>3124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3">
-        <v>1119</v>
+        <v>2659</v>
       </c>
       <c r="E38" s="3">
-        <v>1703</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D39" s="3">
-        <v>1038</v>
+        <v>100</v>
       </c>
       <c r="E39" s="3">
-        <v>1118</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="E40" s="3">
-        <v>8</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3">
-        <v>3207</v>
+        <v>615</v>
       </c>
       <c r="E41" s="3">
-        <v>3214</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>2444</v>
       </c>
       <c r="E42" s="3">
-        <v>19</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D43" s="3">
-        <v>2659</v>
+        <v>919</v>
       </c>
       <c r="E43" s="3">
-        <v>2677</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>919</v>
       </c>
       <c r="E44" s="3">
-        <v>294</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D45" s="3">
-        <v>303</v>
+        <v>1483</v>
       </c>
       <c r="E45" s="3">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="3">
-        <v>615</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2444</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="3">
-        <v>919</v>
-      </c>
-      <c r="E48" s="3">
         <v>2739</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="3">
-        <v>919</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1483</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
-      <c r="A51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="4">
-        <v>2943</v>
-      </c>
-      <c r="E52" s="4">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="4">
-        <v>7</v>
-      </c>
-      <c r="E53" s="4">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="4">
-        <v>498</v>
-      </c>
-      <c r="E54" s="4">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="4">
-        <v>848</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E56" s="4">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E57" s="4">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1755</v>
-      </c>
-      <c r="E58" s="4">
-        <v>3011</v>
-      </c>
+    <row r="50" spans="2:2">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1678,4 +1815,160 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2943</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
+        <v>498</v>
+      </c>
+      <c r="E4" s="4">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>848</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1755</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3011</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="38">
   <si>
     <t>genus</t>
   </si>
@@ -203,8 +203,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -563,6 +565,7 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -679,6 +682,7 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1008,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F43" sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1464,31 +1468,31 @@
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
+      <c r="C26" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="3">
-        <v>23</v>
+        <v>1421</v>
       </c>
       <c r="E26" s="3">
-        <v>2275</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>1421</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3">
-        <v>2242</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1499,13 +1503,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>199</v>
+        <v>620</v>
       </c>
       <c r="E28" s="3">
-        <v>750</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1515,14 +1519,14 @@
       <c r="B29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
+      <c r="C29" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D29" s="3">
-        <v>620</v>
+        <v>1704</v>
       </c>
       <c r="E29" s="3">
-        <v>3124</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1532,14 +1536,14 @@
       <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>37</v>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="3">
-        <v>1704</v>
+        <v>620</v>
       </c>
       <c r="E30" s="3">
-        <v>2351</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1549,14 +1553,14 @@
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>16</v>
+      <c r="C31" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="3">
-        <v>620</v>
+        <v>1119</v>
       </c>
       <c r="E31" s="3">
-        <v>1096</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1566,14 +1570,14 @@
       <c r="B32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>17</v>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D32" s="3">
-        <v>1736</v>
+        <v>1038</v>
       </c>
       <c r="E32" s="3">
-        <v>3124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1583,14 +1587,14 @@
       <c r="B33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>32</v>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="3">
-        <v>1119</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>1703</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1600,22 +1604,22 @@
       <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>33</v>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D34" s="3">
-        <v>1038</v>
+        <v>3207</v>
       </c>
       <c r="E34" s="3">
-        <v>1118</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>18</v>
@@ -1624,24 +1628,24 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="3">
-        <v>3207</v>
+        <v>2659</v>
       </c>
       <c r="E36" s="3">
-        <v>3214</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1652,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E37" s="3">
-        <v>19</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1669,13 +1673,13 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D38" s="3">
-        <v>2659</v>
+        <v>303</v>
       </c>
       <c r="E38" s="3">
-        <v>2677</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1686,13 +1690,13 @@
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D39" s="3">
-        <v>100</v>
+        <v>615</v>
       </c>
       <c r="E39" s="3">
-        <v>294</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1703,13 +1707,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" s="3">
-        <v>303</v>
+        <v>2444</v>
       </c>
       <c r="E40" s="3">
-        <v>554</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1720,13 +1724,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D41" s="3">
-        <v>615</v>
+        <v>919</v>
       </c>
       <c r="E41" s="3">
-        <v>1136</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1737,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D42" s="3">
-        <v>2444</v>
+        <v>919</v>
       </c>
       <c r="E42" s="3">
-        <v>2665</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1754,57 +1758,23 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D43" s="3">
-        <v>919</v>
+        <v>1483</v>
       </c>
       <c r="E43" s="3">
         <v>2739</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="3">
-        <v>919</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1483</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2739</v>
-      </c>
+    <row r="48" spans="1:5">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3"/>
+      <c r="B50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01541250-03E6-EF40-BC75-D074F1264E9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="0" windowWidth="26940" windowHeight="26020" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Unused" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="39">
   <si>
     <t>genus</t>
   </si>
@@ -134,13 +140,16 @@
   </si>
   <si>
     <t>medium-S</t>
+  </si>
+  <si>
+    <t>REF_eSNHBV1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +188,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -440,13 +456,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="235">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -687,6 +704,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1011,17 +1036,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="A1:F43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -1580,7 +1605,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1597,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1614,7 +1639,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1631,7 +1656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +1673,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -1665,7 +1690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1682,7 +1707,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1724,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -1716,7 +1741,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1758,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -1750,7 +1775,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1767,7 +1792,25 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="44" spans="1:6" ht="19">
+      <c r="A44" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2448</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="2:2">
@@ -1788,14 +1831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="4" t="s">

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01541250-03E6-EF40-BC75-D074F1264E9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23595A14-F2D2-814F-A16C-C0889B443BB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="43">
   <si>
     <t>genus</t>
   </si>
@@ -143,13 +143,25 @@
   </si>
   <si>
     <t>REF_eSNHBV1</t>
+  </si>
+  <si>
+    <t>REF_eAVHBV1</t>
+  </si>
+  <si>
+    <t>REF_eCRHBV2</t>
+  </si>
+  <si>
+    <t>REF_eTHBV1</t>
+  </si>
+  <si>
+    <t>REF_eCRHBV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +189,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1037,13 +1050,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
@@ -1052,7 +1065,7 @@
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1139,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1211,7 +1224,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1278,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1299,7 +1312,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1346,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1363,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1380,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1418,7 +1431,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1465,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1469,7 +1482,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1533,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1584,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1588,7 +1601,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -1605,7 +1618,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1656,7 +1669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1703,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1707,7 +1720,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1724,7 +1737,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -1741,7 +1754,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +1788,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1792,7 +1805,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19">
+    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1810,14 +1823,61 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1838,9 +1898,9 @@
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1857,7 +1917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +1934,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1891,7 +1951,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1908,7 +1968,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1925,7 +1985,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1942,7 +2002,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +2019,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23595A14-F2D2-814F-A16C-C0889B443BB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C78518E-D865-EC4A-834F-4084652DF654}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="38">
   <si>
     <t>genus</t>
   </si>
@@ -140,21 +140,6 @@
   </si>
   <si>
     <t>medium-S</t>
-  </si>
-  <si>
-    <t>REF_eSNHBV1</t>
-  </si>
-  <si>
-    <t>REF_eAVHBV1</t>
-  </si>
-  <si>
-    <t>REF_eCRHBV2</t>
-  </si>
-  <si>
-    <t>REF_eTHBV1</t>
-  </si>
-  <si>
-    <t>REF_eCRHBV</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1806,78 +1791,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2448</v>
-      </c>
       <c r="F44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/DNArt/Hepadnaviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C78518E-D865-EC4A-834F-4084652DF654}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Unused" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -145,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1034,14 +1028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
@@ -1050,7 +1044,7 @@
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1107,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -1141,7 +1135,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1158,7 +1152,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1192,7 +1186,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +1203,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1220,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1257,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1274,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1297,7 +1291,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1314,7 +1308,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1331,7 +1325,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1365,7 +1359,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
@@ -1382,7 +1376,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1399,7 +1393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1427,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1450,7 +1444,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1461,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1484,7 +1478,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1586,7 +1580,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -1603,7 +1597,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
         <v>29</v>
       </c>
@@ -1620,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -1637,7 +1631,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -1654,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1665,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1682,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1705,7 +1699,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>30</v>
       </c>
@@ -1739,7 +1733,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1750,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -1773,7 +1767,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
         <v>30</v>
       </c>
@@ -1790,7 +1784,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19">
       <c r="F44" s="6"/>
     </row>
   </sheetData>
@@ -1805,16 +1799,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +1859,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1876,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1910,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1933,7 +1927,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Hepadnaviridae-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4C1145-B5D5-6648-8DA2-8905B16CB664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Unused" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,20 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>genus</t>
   </si>
   <si>
-    <t>Amphibian</t>
-  </si>
-  <si>
     <t>Avihepadnavirus</t>
   </si>
   <si>
-    <t>Fish</t>
-  </si>
-  <si>
     <t>Orthohepadnavirus</t>
   </si>
   <si>
@@ -103,9 +103,6 @@
     <t>REF_TFHBV</t>
   </si>
   <si>
-    <t>REF_BBA91</t>
-  </si>
-  <si>
     <t>REF_SkHBV</t>
   </si>
   <si>
@@ -134,12 +131,15 @@
   </si>
   <si>
     <t>medium-S</t>
+  </si>
+  <si>
+    <t>REF_bgHBV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1028,14 +1028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
@@ -1044,32 +1044,32 @@
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1078,18 +1078,18 @@
         <v>1932</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4">
         <v>2850</v>
@@ -1098,18 +1098,18 @@
         <v>3182</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4">
         <v>1376</v>
@@ -1118,15 +1118,15 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>1816</v>
@@ -1135,15 +1135,15 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1152,15 +1152,15 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>57</v>
@@ -1169,15 +1169,15 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4">
         <v>676</v>
@@ -1186,15 +1186,15 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <v>893</v>
@@ -1203,15 +1203,15 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4">
         <v>1280</v>
@@ -1220,15 +1220,15 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
         <v>2524</v>
@@ -1237,18 +1237,18 @@
         <v>3027</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4">
         <v>20</v>
@@ -1257,15 +1257,15 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4">
         <v>693</v>
@@ -1274,15 +1274,15 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>1290</v>
@@ -1291,15 +1291,15 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
+    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4">
         <v>26</v>
@@ -1308,15 +1308,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4">
         <v>139</v>
@@ -1325,15 +1325,15 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1">
+    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4">
         <v>512</v>
@@ -1342,15 +1342,15 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1">
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <v>1071</v>
@@ -1359,15 +1359,15 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4">
         <v>2818</v>
@@ -1376,416 +1376,161 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3">
-        <v>3442</v>
+        <v>2659</v>
       </c>
       <c r="E21" s="3">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D23" s="3">
-        <v>23</v>
+        <v>303</v>
       </c>
       <c r="E23" s="3">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>2243</v>
+        <v>615</v>
       </c>
       <c r="E24" s="3">
-        <v>2758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
-        <v>862</v>
+        <v>2444</v>
       </c>
       <c r="E25" s="3">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>32</v>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D26" s="3">
-        <v>1421</v>
+        <v>919</v>
       </c>
       <c r="E26" s="3">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="3">
-        <v>199</v>
+        <v>919</v>
       </c>
       <c r="E27" s="3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3">
-        <v>620</v>
+        <v>1483</v>
       </c>
       <c r="E28" s="3">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1704</v>
-      </c>
-      <c r="E29" s="3">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3">
-        <v>620</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1119</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1038</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3207</v>
-      </c>
-      <c r="E34" s="3">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2659</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2677</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="3">
-        <v>100</v>
-      </c>
-      <c r="E37" s="3">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="3">
-        <v>303</v>
-      </c>
-      <c r="E38" s="3">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3">
-        <v>615</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="3">
-        <v>2444</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3">
-        <v>919</v>
-      </c>
-      <c r="E41" s="3">
         <v>2739</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="3">
-        <v>919</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1483</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="19">
-      <c r="F44" s="6"/>
+    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1799,24 +1544,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4">
         <v>1</v>
@@ -1825,15 +1570,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4">
         <v>2943</v>
@@ -1842,15 +1587,15 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
@@ -1859,15 +1604,15 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
         <v>498</v>
@@ -1876,15 +1621,15 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>848</v>
@@ -1893,15 +1638,15 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4">
         <v>1200</v>
@@ -1910,15 +1655,15 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>1200</v>
@@ -1927,21 +1672,276 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4">
         <v>1755</v>
       </c>
       <c r="E8" s="4">
         <v>3011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3442</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>117</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2243</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>862</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1421</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>199</v>
+      </c>
+      <c r="E16" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="3">
+        <v>620</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1704</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>620</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1119</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1038</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3207</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3214</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Hepadnaviridae-GLUE/tabular/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4C1145-B5D5-6648-8DA2-8905B16CB664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="26940" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Unused" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -139,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1028,14 +1022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
@@ -1044,7 +1038,7 @@
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1112,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1135,7 +1129,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1163,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1203,7 +1197,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1240,7 +1234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1257,7 +1251,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1285,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1308,7 +1302,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="2" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="2" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="2" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -1376,7 +1370,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1404,7 @@
         <v>2677</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1427,7 +1421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1438,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1461,7 +1455,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1478,7 +1472,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1489,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1523,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="19">
       <c r="F29" s="6"/>
     </row>
   </sheetData>
@@ -1544,16 +1538,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1587,7 +1581,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1621,7 +1615,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1632,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1649,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1666,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1740,7 +1734,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1757,7 +1751,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
@@ -1774,7 +1768,7 @@
         <v>2758</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1791,7 +1785,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +1802,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1825,7 +1819,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1842,7 +1836,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -1859,7 +1853,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1876,7 +1870,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1893,7 +1887,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +1921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>

--- a/tabular/reference_feature_locations.xlsx
+++ b/tabular/reference_feature_locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1680" yWindow="2180" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
   <si>
     <t>genus</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>REF_bgHBV</t>
+  </si>
+  <si>
+    <t>Parahepadnavirus</t>
+  </si>
+  <si>
+    <t>REF_wsHBV</t>
   </si>
 </sst>
 </file>
@@ -205,8 +211,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="235">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,7 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="235">
+  <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -569,6 +587,12 @@
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -686,6 +710,12 @@
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1023,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="A1:E28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1523,8 +1553,57 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19">
+    <row r="29" spans="1:6" ht="18">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3216</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3542</v>
+      </c>
       <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3">
+        <v>170</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3">
+        <v>684</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1724</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
